--- a/MoleculeInterference/Mappe1.xlsx
+++ b/MoleculeInterference/Mappe1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>inf</t>
   </si>
@@ -280,6 +280,33 @@
   </si>
   <si>
     <t>1.000</t>
+  </si>
+  <si>
+    <t>for sinus fit:</t>
+  </si>
+  <si>
+    <t>max vis!</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;A&lt;/b&gt; = 299,17 +/- 0,18</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;B&lt;/b&gt; = 1236,50 +/- 0,13</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;f&lt;/b&gt; = 41,96 +/- 3,3e-03</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;phi&lt;/b&gt; = 39,75 +/-0,0 95</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>Fehler:</t>
   </si>
 </sst>
 </file>
@@ -612,15 +639,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4521"/>
+  <dimension ref="A1:W4521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:23">
       <c r="A1">
         <v>0</v>
       </c>
@@ -634,7 +661,7 @@
         <v>-8.1421299999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>2.0004400000000001E-5</v>
       </c>
@@ -653,8 +680,14 @@
       <c r="M2">
         <v>225.73286999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2">
+        <v>50000</v>
+      </c>
+      <c r="Q2">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>4.0008800000000002E-5</v>
       </c>
@@ -667,8 +700,22 @@
       <c r="G3">
         <v>-9.5171299999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3">
+        <v>50026</v>
+      </c>
+      <c r="Q3">
+        <v>1267</v>
+      </c>
+      <c r="T3">
+        <f>1.23*10^3</f>
+        <v>1230</v>
+      </c>
+      <c r="U3">
+        <f>((T3+T4)-(T3-T4))/((T3+T4)+(T3-T4))</f>
+        <v>0.24308943089430896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>6.0013299999999997E-5</v>
       </c>
@@ -681,8 +728,17 @@
       <c r="G4">
         <v>-21.017130000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4">
+        <v>50052</v>
+      </c>
+      <c r="Q4">
+        <v>1248</v>
+      </c>
+      <c r="T4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>8.0017699999999998E-5</v>
       </c>
@@ -695,8 +751,14 @@
       <c r="G5">
         <v>-26.267130000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5">
+        <v>50078</v>
+      </c>
+      <c r="Q5">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>1.00022E-4</v>
       </c>
@@ -709,8 +771,14 @@
       <c r="G6">
         <v>-24.642130000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6">
+        <v>50104</v>
+      </c>
+      <c r="Q6">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>1.2002699999999999E-4</v>
       </c>
@@ -732,8 +800,25 @@
       <c r="N7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="P7">
+        <v>50130</v>
+      </c>
+      <c r="Q7">
+        <v>1216</v>
+      </c>
+      <c r="S7" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7">
+        <f>0.18</f>
+        <v>0.18</v>
+      </c>
+      <c r="W7">
+        <f>((V8+V7)-(V8-V7))/((V8+V7)+(V8-V7))</f>
+        <v>1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>1.4003099999999999E-4</v>
       </c>
@@ -755,8 +840,21 @@
       <c r="N8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="P8">
+        <v>50156</v>
+      </c>
+      <c r="Q8">
+        <v>1224</v>
+      </c>
+      <c r="S8" t="s">
+        <v>91</v>
+      </c>
+      <c r="V8">
+        <f>0.13</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>1.6003499999999999E-4</v>
       </c>
@@ -778,8 +876,17 @@
       <c r="N9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9">
+        <v>50182</v>
+      </c>
+      <c r="Q9">
+        <v>1258</v>
+      </c>
+      <c r="S9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>1.8003999999999999E-4</v>
       </c>
@@ -801,8 +908,24 @@
       <c r="N10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10">
+        <v>50208</v>
+      </c>
+      <c r="Q10">
+        <v>1353</v>
+      </c>
+      <c r="S10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10">
+        <f>(2*V7)</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>2.00044E-4</v>
       </c>
@@ -824,8 +947,21 @@
       <c r="N11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11">
+        <v>50234</v>
+      </c>
+      <c r="Q11">
+        <v>1344</v>
+      </c>
+      <c r="V11" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11">
+        <f>2*V8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>2.2004899999999999E-4</v>
       </c>
@@ -847,8 +983,14 @@
       <c r="N12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12">
+        <v>50260</v>
+      </c>
+      <c r="Q12">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>2.40053E-4</v>
       </c>
@@ -870,8 +1012,18 @@
       <c r="N13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="P13">
+        <v>50286</v>
+      </c>
+      <c r="Q13">
+        <v>1256</v>
+      </c>
+      <c r="W13">
+        <f>T4/T3</f>
+        <v>0.24308943089430896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>2.6005800000000002E-4</v>
       </c>
@@ -893,8 +1045,14 @@
       <c r="N14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14">
+        <v>50312</v>
+      </c>
+      <c r="Q14">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>2.8006199999999998E-4</v>
       </c>
@@ -916,8 +1074,20 @@
       <c r="N15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15">
+        <v>50338</v>
+      </c>
+      <c r="Q15">
+        <v>1250</v>
+      </c>
+      <c r="U15" t="s">
+        <v>96</v>
+      </c>
+      <c r="V15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>3.0006599999999998E-4</v>
       </c>
@@ -939,8 +1109,14 @@
       <c r="N16">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16">
+        <v>50364</v>
+      </c>
+      <c r="Q16">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>3.2007100000000001E-4</v>
       </c>
@@ -962,8 +1138,14 @@
       <c r="N17">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17">
+        <v>50390</v>
+      </c>
+      <c r="Q17">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>3.4007500000000001E-4</v>
       </c>
@@ -985,8 +1167,14 @@
       <c r="N18">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18">
+        <v>50416</v>
+      </c>
+      <c r="Q18">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>3.6007999999999998E-4</v>
       </c>
@@ -999,8 +1187,23 @@
       <c r="G19">
         <v>2.3578700000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="P19">
+        <v>50442</v>
+      </c>
+      <c r="Q19">
+        <v>1269</v>
+      </c>
+      <c r="T19" t="s">
+        <v>88</v>
+      </c>
+      <c r="U19">
+        <v>50000</v>
+      </c>
+      <c r="V19">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>3.8008399999999999E-4</v>
       </c>
@@ -1013,8 +1216,23 @@
       <c r="G20">
         <v>-2.6421299999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20">
+        <v>50468</v>
+      </c>
+      <c r="Q20">
+        <v>1234</v>
+      </c>
+      <c r="T20" t="s">
+        <v>89</v>
+      </c>
+      <c r="U20">
+        <v>50026</v>
+      </c>
+      <c r="V20">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>4.00088E-4</v>
       </c>
@@ -1027,8 +1245,20 @@
       <c r="G21">
         <v>6.4828700000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="P21">
+        <v>50494</v>
+      </c>
+      <c r="Q21">
+        <v>1287</v>
+      </c>
+      <c r="U21">
+        <v>50052</v>
+      </c>
+      <c r="V21">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>4.2009300000000002E-4</v>
       </c>
@@ -1041,8 +1271,20 @@
       <c r="G22">
         <v>12.48287</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="P22">
+        <v>50520</v>
+      </c>
+      <c r="Q22">
+        <v>1285</v>
+      </c>
+      <c r="U22">
+        <v>50078</v>
+      </c>
+      <c r="V22">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>4.4009700000000003E-4</v>
       </c>
@@ -1055,8 +1297,20 @@
       <c r="G23">
         <v>17.107869999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="P23">
+        <v>50546</v>
+      </c>
+      <c r="Q23">
+        <v>1314</v>
+      </c>
+      <c r="U23">
+        <v>50104</v>
+      </c>
+      <c r="V23">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>4.6010199999999999E-4</v>
       </c>
@@ -1069,8 +1323,20 @@
       <c r="G24">
         <v>12.23287</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="P24">
+        <v>50572</v>
+      </c>
+      <c r="Q24">
+        <v>1306</v>
+      </c>
+      <c r="U24">
+        <v>50130</v>
+      </c>
+      <c r="V24">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>4.80106E-4</v>
       </c>
@@ -1083,8 +1349,20 @@
       <c r="G25">
         <v>16.357869999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="P25">
+        <v>50598</v>
+      </c>
+      <c r="Q25">
+        <v>1146</v>
+      </c>
+      <c r="U25">
+        <v>50156</v>
+      </c>
+      <c r="V25">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>5.0011100000000002E-4</v>
       </c>
@@ -1106,8 +1384,20 @@
       <c r="M26">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="P26">
+        <v>50624</v>
+      </c>
+      <c r="Q26">
+        <v>1149</v>
+      </c>
+      <c r="U26">
+        <v>50182</v>
+      </c>
+      <c r="V26">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>5.2011500000000003E-4</v>
       </c>
@@ -1129,8 +1419,20 @@
       <c r="M27">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="P27">
+        <v>50650</v>
+      </c>
+      <c r="Q27">
+        <v>1146</v>
+      </c>
+      <c r="U27">
+        <v>50208</v>
+      </c>
+      <c r="V27">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>5.4011900000000004E-4</v>
       </c>
@@ -1152,8 +1454,20 @@
       <c r="M28">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="P28">
+        <v>50676</v>
+      </c>
+      <c r="Q28">
+        <v>1243</v>
+      </c>
+      <c r="U28">
+        <v>50234</v>
+      </c>
+      <c r="V28">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>5.6012399999999995E-4</v>
       </c>
@@ -1175,8 +1489,20 @@
       <c r="M29">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="P29">
+        <v>50702</v>
+      </c>
+      <c r="Q29">
+        <v>1266</v>
+      </c>
+      <c r="U29">
+        <v>50260</v>
+      </c>
+      <c r="V29">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>5.8012799999999996E-4</v>
       </c>
@@ -1198,8 +1524,20 @@
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="P30">
+        <v>50728</v>
+      </c>
+      <c r="Q30">
+        <v>1231</v>
+      </c>
+      <c r="U30">
+        <v>50286</v>
+      </c>
+      <c r="V30">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>6.0013299999999998E-4</v>
       </c>
@@ -1221,8 +1559,20 @@
       <c r="M31">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="P31">
+        <v>50754</v>
+      </c>
+      <c r="Q31">
+        <v>1302</v>
+      </c>
+      <c r="U31">
+        <v>50312</v>
+      </c>
+      <c r="V31">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>6.2013699999999999E-4</v>
       </c>
@@ -1244,8 +1594,20 @@
       <c r="M32">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32">
+        <v>50780</v>
+      </c>
+      <c r="Q32">
+        <v>1365</v>
+      </c>
+      <c r="U32">
+        <v>50338</v>
+      </c>
+      <c r="V32">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>6.4014200000000001E-4</v>
       </c>
@@ -1267,8 +1629,20 @@
       <c r="M33">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="P33">
+        <v>50806</v>
+      </c>
+      <c r="Q33">
+        <v>1266</v>
+      </c>
+      <c r="U33">
+        <v>50364</v>
+      </c>
+      <c r="V33">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>6.6014600000000002E-4</v>
       </c>
@@ -1281,8 +1655,20 @@
       <c r="G34">
         <v>7.4828700000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P34">
+        <v>50832</v>
+      </c>
+      <c r="Q34">
+        <v>1255</v>
+      </c>
+      <c r="U34">
+        <v>50390</v>
+      </c>
+      <c r="V34">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>6.8015000000000003E-4</v>
       </c>
@@ -1295,8 +1681,20 @@
       <c r="G35">
         <v>13.98287</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="P35">
+        <v>50858</v>
+      </c>
+      <c r="Q35">
+        <v>1225</v>
+      </c>
+      <c r="U35">
+        <v>50416</v>
+      </c>
+      <c r="V35">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>7.0015500000000005E-4</v>
       </c>
@@ -1309,8 +1707,20 @@
       <c r="G36">
         <v>5.4828700000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="P36">
+        <v>50884</v>
+      </c>
+      <c r="Q36">
+        <v>1128</v>
+      </c>
+      <c r="U36">
+        <v>50442</v>
+      </c>
+      <c r="V36">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>7.2015899999999995E-4</v>
       </c>
@@ -1323,8 +1733,20 @@
       <c r="G37">
         <v>11.98287</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="P37">
+        <v>50910</v>
+      </c>
+      <c r="Q37">
+        <v>1151</v>
+      </c>
+      <c r="U37">
+        <v>50468</v>
+      </c>
+      <c r="V37">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>7.4016399999999997E-4</v>
       </c>
@@ -1337,8 +1759,20 @@
       <c r="G38">
         <v>12.48287</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="P38">
+        <v>50936</v>
+      </c>
+      <c r="Q38">
+        <v>1191</v>
+      </c>
+      <c r="U38">
+        <v>50494</v>
+      </c>
+      <c r="V38">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>7.6016799999999998E-4</v>
       </c>
@@ -1351,8 +1785,20 @@
       <c r="G39">
         <v>-0.39212999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="P39">
+        <v>50962</v>
+      </c>
+      <c r="Q39">
+        <v>1283</v>
+      </c>
+      <c r="U39">
+        <v>50520</v>
+      </c>
+      <c r="V39">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>7.80173E-4</v>
       </c>
@@ -1365,8 +1811,20 @@
       <c r="G40">
         <v>3.6078700000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="P40">
+        <v>50988</v>
+      </c>
+      <c r="Q40">
+        <v>1349</v>
+      </c>
+      <c r="U40">
+        <v>50546</v>
+      </c>
+      <c r="V40">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>8.0017700000000001E-4</v>
       </c>
@@ -1379,8 +1837,20 @@
       <c r="G41">
         <v>1.2328699999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="P41">
+        <v>51014</v>
+      </c>
+      <c r="Q41">
+        <v>1258</v>
+      </c>
+      <c r="U41">
+        <v>50572</v>
+      </c>
+      <c r="V41">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>8.2018100000000001E-4</v>
       </c>
@@ -1393,8 +1863,20 @@
       <c r="G42">
         <v>1.6078699999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="P42">
+        <v>51040</v>
+      </c>
+      <c r="Q42">
+        <v>1309</v>
+      </c>
+      <c r="U42">
+        <v>50598</v>
+      </c>
+      <c r="V42">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>8.4018600000000004E-4</v>
       </c>
@@ -1407,8 +1889,20 @@
       <c r="G43">
         <v>2.2328700000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="P43">
+        <v>51066</v>
+      </c>
+      <c r="Q43">
+        <v>1349</v>
+      </c>
+      <c r="U43">
+        <v>50624</v>
+      </c>
+      <c r="V43">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>8.6019000000000004E-4</v>
       </c>
@@ -1421,8 +1915,14 @@
       <c r="G44">
         <v>-1.1421300000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="U44">
+        <v>50650</v>
+      </c>
+      <c r="V44">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>8.8019499999999996E-4</v>
       </c>
@@ -1435,8 +1935,14 @@
       <c r="G45">
         <v>-3.0171299999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="U45">
+        <v>50676</v>
+      </c>
+      <c r="V45">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>9.0019899999999996E-4</v>
       </c>
@@ -1449,8 +1955,14 @@
       <c r="G46">
         <v>-9.0171299999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="U46">
+        <v>50702</v>
+      </c>
+      <c r="V46">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>9.2020399999999999E-4</v>
       </c>
@@ -1463,8 +1975,14 @@
       <c r="G47">
         <v>-13.51713</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="U47">
+        <v>50728</v>
+      </c>
+      <c r="V47">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>9.4020799999999999E-4</v>
       </c>
@@ -1477,8 +1995,14 @@
       <c r="G48">
         <v>-9.6421299999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="U48">
+        <v>50754</v>
+      </c>
+      <c r="V48">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>9.60212E-4</v>
       </c>
@@ -1491,8 +2015,14 @@
       <c r="G49">
         <v>-9.7671299999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="U49">
+        <v>50780</v>
+      </c>
+      <c r="V49">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>9.8021700000000002E-4</v>
       </c>
@@ -1505,8 +2035,14 @@
       <c r="G50">
         <v>-9.1421299999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="U50">
+        <v>50806</v>
+      </c>
+      <c r="V50">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>1E-3</v>
       </c>
@@ -1519,8 +2055,14 @@
       <c r="G51">
         <v>-4.5171299999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="U51">
+        <v>50832</v>
+      </c>
+      <c r="V51">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>1.0200000000000001E-3</v>
       </c>
@@ -1533,8 +2075,14 @@
       <c r="G52">
         <v>-6.5171299999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="U52">
+        <v>50858</v>
+      </c>
+      <c r="V52">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>1.0399999999999999E-3</v>
       </c>
@@ -1547,8 +2095,14 @@
       <c r="G53">
         <v>2.9828700000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="U53">
+        <v>50884</v>
+      </c>
+      <c r="V53">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>1.06E-3</v>
       </c>
@@ -1561,8 +2115,14 @@
       <c r="G54">
         <v>-0.89212999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="U54">
+        <v>50910</v>
+      </c>
+      <c r="V54">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>1.08E-3</v>
       </c>
@@ -1575,8 +2135,14 @@
       <c r="G55">
         <v>-7.7671299999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="U55">
+        <v>50936</v>
+      </c>
+      <c r="V55">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -1589,8 +2155,14 @@
       <c r="G56">
         <v>-4.2671299999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="U56">
+        <v>50962</v>
+      </c>
+      <c r="V56">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57">
         <v>1.1199999999999999E-3</v>
       </c>
@@ -1603,8 +2175,14 @@
       <c r="G57">
         <v>3.7328700000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="U57">
+        <v>50988</v>
+      </c>
+      <c r="V57">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>1.14E-3</v>
       </c>
@@ -1617,8 +2195,14 @@
       <c r="G58">
         <v>3.6078700000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="U58">
+        <v>51014</v>
+      </c>
+      <c r="V58">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>1.16E-3</v>
       </c>
@@ -1631,8 +2215,14 @@
       <c r="G59">
         <v>-2.1421299999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="U59">
+        <v>51040</v>
+      </c>
+      <c r="V59">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -1645,8 +2235,14 @@
       <c r="G60">
         <v>-4.3921299999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="U60">
+        <v>51066</v>
+      </c>
+      <c r="V60">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -1660,7 +2256,7 @@
         <v>0.35787000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:22">
       <c r="A62">
         <v>1.2199999999999999E-3</v>
       </c>
@@ -1674,7 +2270,7 @@
         <v>-3.2671299999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:22">
       <c r="A63">
         <v>1.24E-3</v>
       </c>
@@ -1688,7 +2284,7 @@
         <v>10.98287</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:22">
       <c r="A64">
         <v>1.2600000000000001E-3</v>
       </c>

--- a/MoleculeInterference/Mappe1.xlsx
+++ b/MoleculeInterference/Mappe1.xlsx
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W4521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
